--- a/src/test/resources/link/webarata3/kexcelapi/book1.xlsx
+++ b/src/test/resources/link/webarata3/kexcelapi/book1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arata/Dropbox/dev/ij/KExcelAPI/src/test/resources/link/arata/kexcelapi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arata\Dropbox\dev\ij\benrippoi\src\test\resources\link\webarata3\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="460" windowWidth="25600" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="1560" yWindow="465" windowWidth="25605" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -111,13 +111,27 @@
   </si>
   <si>
     <t>123.456</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付時刻</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -227,6 +241,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -557,21 +574,21 @@
   <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K7" sqref="K7:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="4.6640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.15">
@@ -602,6 +619,9 @@
       <c r="J1" t="s">
         <v>6</v>
       </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -634,6 +654,10 @@
         <f>B2&amp;C2</f>
         <v>あいうえお123</v>
       </c>
+      <c r="K2" t="e">
+        <f>1/0</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -645,8 +669,11 @@
       <c r="C3">
         <v>123</v>
       </c>
-      <c r="D3">
-        <v>105.5</v>
+      <c r="D3" s="4">
+        <v>150.51</v>
+      </c>
+      <c r="E3" s="5">
+        <v>42339</v>
       </c>
       <c r="G3">
         <f>C3*3</f>
@@ -656,6 +683,10 @@
         <f>B3&amp;C3</f>
         <v>456123</v>
       </c>
+      <c r="K3" t="e">
+        <f t="shared" ref="K3:K8" si="0">1/0</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -667,22 +698,38 @@
       <c r="C4">
         <v>123</v>
       </c>
-      <c r="D4">
-        <v>192.22200000000001</v>
+      <c r="D4" s="4">
+        <v>150.51</v>
+      </c>
+      <c r="E4" s="5">
+        <v>42339</v>
       </c>
       <c r="G4">
         <f>D4/3</f>
-        <v>64.073999999999998</v>
+        <v>50.169999999999995</v>
       </c>
       <c r="J4" t="str">
         <f>C4&amp;B4</f>
         <v>123123.456</v>
       </c>
+      <c r="K4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="C5">
+        <v>123</v>
+      </c>
+      <c r="D5" s="4">
+        <v>150.51</v>
+      </c>
+      <c r="E5" s="5">
+        <v>42339</v>
+      </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
@@ -690,30 +737,76 @@
         <f>(1=2)</f>
         <v>0</v>
       </c>
+      <c r="K5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1">
-        <v>42338</v>
+      <c r="C6">
+        <v>123</v>
+      </c>
+      <c r="D6" s="4">
+        <v>150.51</v>
+      </c>
+      <c r="E6" s="5">
+        <v>42339</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
         <f>E6+2</f>
-        <v>42340</v>
+        <v>42341</v>
+      </c>
+      <c r="K6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
+      <c r="C7">
+        <v>123</v>
+      </c>
+      <c r="D7" s="4">
+        <v>150.51</v>
+      </c>
       <c r="E7" s="7">
         <v>0.42395833333333338</v>
       </c>
       <c r="G7" s="7">
         <f>E7+0.1</f>
         <v>0.52395833333333341</v>
+      </c>
+      <c r="K7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>123</v>
+      </c>
+      <c r="D8" s="4">
+        <v>150.51</v>
+      </c>
+      <c r="E8" s="3">
+        <v>42339.423958333333</v>
+      </c>
+      <c r="G8" s="3">
+        <f>E8+2</f>
+        <v>42341.423958333333</v>
+      </c>
+      <c r="K8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.15">
@@ -729,7 +822,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -741,7 +834,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
   </cols>
@@ -795,6 +888,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>